--- a/question_data_cleaned.xlsx
+++ b/question_data_cleaned.xlsx
@@ -526,7 +526,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>null</t>
@@ -579,7 +583,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>null</t>
@@ -632,7 +640,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>null</t>
@@ -685,7 +697,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>null</t>
@@ -738,7 +754,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>null</t>
@@ -791,7 +811,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>null</t>
@@ -844,7 +868,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>null</t>
@@ -897,7 +925,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>null</t>
@@ -950,7 +982,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>null</t>
@@ -1003,7 +1039,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>null</t>
@@ -1056,7 +1096,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>null</t>
@@ -1109,7 +1153,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>null</t>
@@ -1162,7 +1210,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>null</t>
@@ -1215,7 +1267,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>null</t>
@@ -1272,7 +1328,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>null</t>
@@ -1624,7 +1684,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>null</t>
@@ -1681,7 +1745,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>null</t>
@@ -2165,7 +2233,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>null</t>
@@ -2222,7 +2294,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>null</t>
@@ -2580,7 +2656,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>null</t>
@@ -3518,7 +3598,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>null</t>
@@ -5443,7 +5527,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>null</t>
@@ -6156,7 +6244,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>null</t>
@@ -6429,7 +6521,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>null</t>
@@ -6482,7 +6578,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>null</t>
@@ -6535,7 +6635,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>null</t>
@@ -6588,7 +6692,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>null</t>
@@ -6641,7 +6749,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>null</t>
@@ -6694,7 +6806,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>null</t>
@@ -6747,7 +6863,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>null</t>
@@ -6800,7 +6920,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>null</t>
@@ -6853,7 +6977,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
           <t>null</t>
@@ -6910,7 +7038,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>null</t>
@@ -6967,7 +7099,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>null</t>
@@ -7024,7 +7160,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>null</t>
@@ -7081,7 +7221,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>null</t>
@@ -7138,7 +7282,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>null</t>
@@ -7250,7 +7398,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>null</t>
@@ -7358,7 +7510,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
           <t>null</t>
@@ -7466,7 +7622,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr">
         <is>
           <t>null</t>
@@ -7519,7 +7679,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>null</t>
@@ -7682,7 +7846,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr">
         <is>
           <t>null</t>
@@ -7735,7 +7903,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr">
         <is>
           <t>null</t>
@@ -8055,7 +8227,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>null</t>
@@ -8171,7 +8347,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G137" t="inlineStr">
         <is>
           <t>null</t>
@@ -8287,7 +8467,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G139" t="inlineStr">
         <is>
           <t>null</t>
@@ -8399,7 +8583,11 @@
           <t>true</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr">
         <is>
           <t>null</t>
@@ -9871,7 +10059,11 @@
           <t>false</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr">
         <is>
           <t>null</t>
@@ -9906,7 +10098,11 @@
           <t>false</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G168" t="inlineStr">
         <is>
           <t>null</t>
